--- a/src/uploads/excelEnergia/Modulo de energia.xlsx
+++ b/src/uploads/excelEnergia/Modulo de energia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BCD24-187C-471C-B539-A0E7D2611A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86E980-B778-4379-9A20-D7341C51E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6040AF38-875D-4111-BDD1-D5B0647F037F}"/>
   </bookViews>
@@ -350,9 +350,6 @@
     <t>Total area</t>
   </si>
   <si>
-    <t>N de NIC</t>
-  </si>
-  <si>
     <t>Nombre del cliente</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>L Pelaez</t>
+  </si>
+  <si>
+    <t>N de NIT</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -715,6 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,8 +725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CB8BAD-74CF-4DF9-ABEB-E02C1DC4F56B}">
   <dimension ref="B2:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,10 +1118,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1219,10 +1218,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1338,10 +1337,10 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="42"/>
+      <c r="C33" s="43"/>
       <c r="E33" s="22" t="s">
         <v>34</v>
       </c>
@@ -1444,10 +1443,10 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="E47" s="26" t="s">
         <v>47</v>
       </c>
@@ -1547,10 +1546,10 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="43"/>
       <c r="E61" s="13" t="s">
         <v>58</v>
       </c>
@@ -1653,10 +1652,10 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="40"/>
+      <c r="C76" s="41"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="30" t="s">
@@ -1724,10 +1723,10 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="42"/>
+      <c r="C88" s="43"/>
       <c r="E88" s="34" t="s">
         <v>77</v>
       </c>
@@ -1841,10 +1840,10 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="40"/>
+      <c r="C104" s="41"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="35" t="s">
@@ -1902,10 +1901,10 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="42"/>
+      <c r="C114" s="43"/>
       <c r="E114" s="6" t="s">
         <v>43</v>
       </c>
@@ -1998,7 +1997,7 @@
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C126" s="20">
         <v>1234567890</v>
@@ -2006,34 +2005,34 @@
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="39" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="43" t="s">
+      <c r="B129" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C129" s="44" t="s">
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="34" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="43" t="s">
+      <c r="C130" s="40" t="s">
         <v>111</v>
-      </c>
-      <c r="C130" s="44" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/excelEnergia/Modulo de energia.xlsx
+++ b/src/uploads/excelEnergia/Modulo de energia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD86E980-B778-4379-9A20-D7341C51E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D48962-CD2F-40DE-ADD1-15D7494E006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6040AF38-875D-4111-BDD1-D5B0647F037F}"/>
   </bookViews>
@@ -365,16 +365,16 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
     <t>Lugar</t>
   </si>
   <si>
     <t>L Pelaez</t>
   </si>
   <si>
-    <t>N de NIT</t>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>nNit</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="B2:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2024,15 +2024,15 @@
         <v>108</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/excelEnergia/Modulo de energia.xlsx
+++ b/src/uploads/excelEnergia/Modulo de energia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D48962-CD2F-40DE-ADD1-15D7494E006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3222095-EE17-4BDF-B446-4A997899B78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6040AF38-875D-4111-BDD1-D5B0647F037F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t xml:space="preserve">Consumo de energia </t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>nNit</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>sede</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CB8BAD-74CF-4DF9-ABEB-E02C1DC4F56B}">
-  <dimension ref="B2:G130"/>
+  <dimension ref="B2:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,6 +2041,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B76:C76"/>

--- a/src/uploads/excelEnergia/Modulo de energia.xlsx
+++ b/src/uploads/excelEnergia/Modulo de energia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3222095-EE17-4BDF-B446-4A997899B78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D848A6B-D13B-4E83-8F19-FD34AA63ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6040AF38-875D-4111-BDD1-D5B0647F037F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6040AF38-875D-4111-BDD1-D5B0647F037F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -371,16 +369,16 @@
     <t>L Pelaez</t>
   </si>
   <si>
+    <t>N de NIT</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
     <t>Marzo</t>
-  </si>
-  <si>
-    <t>nNit</t>
-  </si>
-  <si>
-    <t>Medellin</t>
-  </si>
-  <si>
-    <t>sede</t>
   </si>
 </sst>
 </file>
@@ -676,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -697,9 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,6 +717,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,7 +731,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,11 +1079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CB8BAD-74CF-4DF9-ABEB-E02C1DC4F56B}">
   <dimension ref="B2:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
@@ -1124,10 +1121,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1224,10 +1221,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1343,11 +1340,11 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="E33" s="22" t="s">
+      <c r="C33" s="44"/>
+      <c r="E33" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="16">
@@ -1359,7 +1356,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="6">
@@ -1367,7 +1364,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="6">
@@ -1407,7 +1404,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="19">
@@ -1441,7 +1438,7 @@
       <c r="E46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>100</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -1449,14 +1446,14 @@
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="E47" s="26" t="s">
+      <c r="C47" s="44"/>
+      <c r="E47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="24">
         <f>F45/F46</f>
         <v>5</v>
       </c>
@@ -1465,7 +1462,7 @@
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="6">
@@ -1473,7 +1470,7 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="6">
@@ -1505,7 +1502,7 @@
       <c r="E51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <v>100</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -1513,10 +1510,10 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="24">
         <f>F50/F51</f>
         <v>4</v>
       </c>
@@ -1544,7 +1541,7 @@
       <c r="E60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="23">
         <v>2</v>
       </c>
       <c r="G60" s="4" t="s">
@@ -1552,14 +1549,14 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="43"/>
+      <c r="C61" s="44"/>
       <c r="E61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="24">
         <f>(F59/F60)</f>
         <v>100</v>
       </c>
@@ -1576,7 +1573,7 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>55</v>
       </c>
       <c r="C63" s="6">
@@ -1608,7 +1605,7 @@
       <c r="E65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="23">
         <v>24</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -1616,7 +1613,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="20" t="s">
         <v>60</v>
       </c>
       <c r="F66" s="8">
@@ -1649,33 +1646,33 @@
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="27">
         <f>F73/F74</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="41"/>
+      <c r="C76" s="42"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C77" s="6">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="25" t="s">
         <v>70</v>
       </c>
       <c r="C78" s="6">
@@ -1692,9 +1689,9 @@
       <c r="B79" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="28">
         <f>(C78-C77)/C77*100</f>
-        <v>733.33333333333326</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>68</v>
@@ -1704,7 +1701,7 @@
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E80" s="26" t="s">
+      <c r="E80" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F80" s="6">
@@ -1718,7 +1715,7 @@
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="33" t="s">
         <v>76</v>
       </c>
       <c r="F87" s="7">
@@ -1729,11 +1726,11 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="E88" s="34" t="s">
+      <c r="C88" s="44"/>
+      <c r="E88" s="33" t="s">
         <v>77</v>
       </c>
       <c r="F88" s="17">
@@ -1744,26 +1741,26 @@
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C89" s="6">
         <v>5</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="33">
+      <c r="F89" s="32">
         <f>F87/F88</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C90" s="6">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
@@ -1772,7 +1769,7 @@
       </c>
       <c r="C91" s="6">
         <f>(C90-C89)/C89*100</f>
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>49</v>
@@ -1801,10 +1798,10 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="32">
         <f>F92/F93</f>
         <v>0.73333333333333328</v>
       </c>
@@ -1829,7 +1826,7 @@
       <c r="E102" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="24">
         <v>50</v>
       </c>
       <c r="G102" s="5" t="s">
@@ -1837,7 +1834,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="6">
@@ -1846,13 +1843,13 @@
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="41"/>
+      <c r="C104" s="42"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C105" s="6">
@@ -1863,7 +1860,7 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>92</v>
       </c>
       <c r="C106" s="6">
@@ -1890,7 +1887,7 @@
       <c r="E107" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F107" s="25">
+      <c r="F107" s="24">
         <v>50</v>
       </c>
       <c r="G107" s="5" t="s">
@@ -1898,7 +1895,7 @@
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E108" s="36" t="s">
+      <c r="E108" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F108" s="6">
@@ -1907,16 +1904,16 @@
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C114" s="43"/>
+      <c r="C114" s="44"/>
       <c r="E114" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="37" t="s">
         <v>95</v>
       </c>
       <c r="C115" s="6">
@@ -1933,7 +1930,7 @@
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="37" t="s">
+      <c r="B116" s="36" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="6">
@@ -1942,7 +1939,7 @@
       <c r="E116" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F116" s="25">
+      <c r="F116" s="24">
         <v>50</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -1953,11 +1950,11 @@
       <c r="B117" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C117" s="29">
+      <c r="C117" s="28">
         <f>(C116-C115)/C115*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="E117" s="38" t="s">
+      <c r="E117" s="37" t="s">
         <v>95</v>
       </c>
       <c r="F117" s="17">
@@ -1985,7 +1982,7 @@
       <c r="E122" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F122" s="25">
+      <c r="F122" s="24">
         <v>50</v>
       </c>
       <c r="G122" s="5" t="s">
@@ -1993,7 +1990,7 @@
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E123" s="37" t="s">
+      <c r="E123" s="36" t="s">
         <v>100</v>
       </c>
       <c r="F123" s="6">
@@ -2002,50 +1999,50 @@
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126">
+        <v>12345678445</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C126" s="20">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B127" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B128" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="41" t="s">
         <v>113</v>
       </c>
     </row>
